--- a/wwwroot/reports/StockOnHand_Report.xlsx
+++ b/wwwroot/reports/StockOnHand_Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <x:si>
     <x:t>Item Code</x:t>
   </x:si>
@@ -28,157 +28,847 @@
     <x:t>Category</x:t>
   </x:si>
   <x:si>
-    <x:t>Stock</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OnOrder</x:t>
+    <x:t>Location</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LocationStock</x:t>
   </x:si>
   <x:si>
     <x:t>Uom</x:t>
   </x:si>
   <x:si>
-    <x:t>PGE2PT10000P080C3000</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plastic End Cap Flange Size: 8"
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1MFG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FLANGE เหล็กหน้าแปลน</x:t>
+    <x:t>SP-DRR4-AF-000000-39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AF189502077 Spring Coil(อะไหล่เครื่องสว่านแจ๊สบอส Alfra Rotabest 40 RQ)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1SSP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spare part อะไหล่เครื่องมือ,อุปกรณ์ที่ใช้กับเครื่อง</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SP-CUD8-CS-435251-00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PP-43525-1 Solenoid coil 110V (อะไหล่เครื่องเลื่อยสายพาน Cosen รุ่น C-420NC)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCJ187X12121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.27mm x 1219mm x Coil  JIS G3141 SPCC-SD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1MPL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLATE เหล็กแผ่น</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCJ185X12121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.25mm x 1219mm x Coil  JIS G3141 SPCC-SD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCJ180026121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.60mm x 1219mm x Coil  JIS G3141 SPCC-SD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCJ180025121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.50mm x 1219mm x Coil  JIS G3141 SPCC-SD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCJ180015121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.50mm x 1219mm x Coil  JIS G3141 SPCC-SD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S1V4PENTAA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,486</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KGS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCJ180013121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.30mm x 1219mm x Coil  JIS G3141 SPCC-SD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCJ180010121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.00mm x 1219mm x Coil JIS G3141 SPCC-SD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCJ180008121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.80mm x 1219mm x Coil  JIS G3141 SPCC-SD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCJ180005121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.50mm x 1219mm x Coil  JIS G3141 SPCC-SD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCJ010060152400000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.00mm x 1524mm x Coil  JIS G3101 SS400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA957X12121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.27mm x1219mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20,502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA957X12088500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.27mm x885mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA957X12022000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.27mm x220mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA955X12121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.25mm x1219mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA955X12010000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.25mm x100mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA954X12121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.24mm x1219mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA950026121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.60mm x1219mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA950025121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.50mm x1219mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17,380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA950025088000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.50mm x880mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA950025037000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.50mm x370mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA950019121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.90mm x1219mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA950019069000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.90mm x690mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA950015121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.50mm x1219mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA950015043500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.50mm x435mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA950015012000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.50mm x120mm x Coil ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA950013121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.30mm x1219mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA950013044000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.30mm x440mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA950012121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.20mm x1219mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA950010125000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.00mm x1250mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA950010121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.00mm x1219mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8,706</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA950010114900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.00mm x1149mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA950010094000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.00mm x 940mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA950010043500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.00mm x 435mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA950008121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.80mm x 1219mm x Coil  ASTM A1008 CS-B</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PGE2PT10000P060C4000</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plastic End Cap Flange 300# Size: 6"
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PGE2PT10000P040C7000</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plastic End Cap Flange 900# Size: 4"
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PGE2PT10000P040C4000</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plastic End Cap Flange 300# Size: 4"
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PGE2PT10000P040C3000</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plastic End Cap Flange 150# Size: 4"
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PGE2PT10000P030C4000</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plastic End Cap Flange 300# Size: 3"
-</x:t>
+    <x:t>PLPCA950008010000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.80mm x 100mm x Coil  ASTM A1008 CS-B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA810015121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.50mm x 1219mm x Coil  ASTM A240 TP410</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA777X26121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.67mm x 1219mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PCS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA777X26101500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.67mm x 1015mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA777X26020300000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.67mm x 203mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C1V4000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA777X12123500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.27mm x 1235mm x Coil ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA777X12121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.27mm x 1219mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97,927</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S1V4PCS000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8,647</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA777X12116500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.27mm x 1165mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,392</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA777X12100000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.27mm x 1000mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,485</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA777X12019500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.27mm x 195mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA775X12123500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.25mm x 1235mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA775X12045500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.25mm x 455mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770040123500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.00mm x 1235mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770035121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.50mm x 1219mm x Coil ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770035100000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.50mm x 1000mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770030125000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.00mm x 1250mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770030123500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.00mm x 1235mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770030121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.00mm x 1219mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770030101500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.00mm x 1015mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770030100000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.00mm x 1000mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770025121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.50mm x 1219mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770025120000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.50mm x 1200mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770025101500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.50mm x 1015mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770025100000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.50mm x 1000mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770025054000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.50mm x 540mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770020121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.00mm x 1219mm x Coil  ASTM A240 TP409</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>PGE2PT10000P030C3000</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plastic End Cap Flange 150# Size: 3"
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PGE2PT10000P025C4000</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plastic End Cap Flange 300# Size: 2.5"
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PGE2PT10000P025C3000</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plastic End Cap Flange 150# Size: 2.5"
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PGE2PT10000P020C4000</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plastic End Cap Flange 300# Size: 2"
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PGE1PT10000P03500000</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plastic End Cap Size: 3.5"
-</x:t>
+    <x:t>PLPCA770015123500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.50mm x 1235mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770015121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.50mm x 1219mm x Coil ASTM A240 TP409</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>PGE1PT10000P02500000</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plastic End Cap Size: 2-1/2"
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PGE1PT10000P02000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plastic End Cap Size: 2"
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>239</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PGE1PT10000P01500000</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Plastic End Cap Size: 1-1/2"
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FM18-V2-FG-FA32-0010</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2-1/2" CLASS 150 RF WN FLANGE SCH.40 ASTM A182 F316
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
+    <x:t>15,672</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770015116500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.50mm x 1165mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770015100000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.50mm x 1000mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770015086500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.50mm x 865mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770015024000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.50mm x 240mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770013121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.30mm x 1219.2mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770013039500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.30mm x 395mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770010125000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.00mm x 1235mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120,089</x:t>
+  </x:si>
+  <x:si>
+    <x:t>520</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770010123500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770010121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.00mm x 1219mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31,347</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770010115000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.00mm x 1150mm x Coil ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770010111000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.00mm x 1110mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770010103000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.00mm x 1030mm x Coil ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770010101500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.00mm x 1015mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770010100000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.00mm x 1000mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770010042000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.00mm x 420mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770010014500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.00mm x 145mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770008123500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.80mm x 1235mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770008107000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.80mm x 1070mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770008101500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.80mm x 1015mm Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770008100000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.80mm x 1000mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770008094000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.80mm x 940mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770008048000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.80mm x 480mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA770008039000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.80mm x 390mm x Coil  ASTM A240 TP409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA737X13121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.37mm x 1219mm x Coil  ASTM A240 TP321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,629</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA737X12121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.27mm x 1219mm x Coil  ASTM A240 TP321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA700030121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.00mm x 1219mm x Coil  ASTM A240 TP316</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA677X12121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.27mm x 1219mm x Coil  ASTM A240 TP310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA677X12036000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.27mm x 360mm x Coil  ASTM A240 TP310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA670015121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.50mm x 1219mm x Coil   ASTM A240 TP310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA670015052000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.50mm x 520mm x Coil   ASTM A240 TP310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA644X26121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.64 x 1219mm x Coil   ASTM A240 TP309</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA643X20121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.03 x 1219mm x Coil   ASTM A240 TP309</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA640015121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.50mm x 1219mm x Coil   ASTM A240 TP309</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA617X26123500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.67mm x 1235mm x Coil  ASTM A240 TP304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA617X26121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.67mm x 1219mm x Coil  ASTM A240 TP304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA617X26018800000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.67mm x 188mm x Coil  ASTM A240 TP304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA617X12152400000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.27mm x 1524mm x Coil  ASTM A240 TP304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46,605</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA617X12123500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.27mm x 1235mm x Coil  ASTM A240 TP304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA617X12121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.27mm x 1219mm x Coil  ASTM A240 TP304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29,386</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA617X12030500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.27mm x 305mm x Coil  ASTM A240 TP304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA615X12121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.25mm x 1219mm x Coil  ASTM A240 TP304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA610040152400000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.00mm x 1524mm x Coil  ASTM A240 TP304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA610030121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.00mm x 1219mm x Coil  ASTM A240 TP304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA610030100000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.00mm x 1000mm x Coil  ASTM A240 TP304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA610025121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.50mm x 1219mm x Coil  ASTM A240 TP304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA610025100000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.50mm x 1000mm x Coil  ASTM A240 TP304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA610015121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.50mm x 1219mm x Coil  ASTM A240 TP304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8,258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA610015100000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.50mm x 1000mm x Coil  ASTM A240 TP304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA610015093000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.50mm x 930mm x Coil  ASTM A240 TP304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA610012125100000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.20mm x 1251mm x Coil  ASTM A240 TP304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA610012121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.20mm x 1219mm x Coil  ASTM A240 TP304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA610008121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.80mm x 1219mm x Coil  ASTM A240 TP304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA610005121900000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.50mm x 1219mm x Coil  ASTM A240 TP304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA040060152400000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.00mm x 1524mm x Coil  ASTM A36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLPCA040050152400000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.00mm x 1524mm x Coil  ASTM A36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK-CS00-105032000-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Woven Polyester Lashing Model : Cordlash 105 ( 100 M/COIL ) ( สายรัดผ้า 32 mm )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1SPK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Packing อุปกรณ์งานแพ็ค</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C2V2000000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -229,35 +919,28 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:dxfs count="1">
-    <x:dxf/>
-  </x:dxfs>
 </x:styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G16" totalsRowShown="0">
-  <x:autoFilter ref="A1:G16"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G125" totalsRowShown="0">
+  <x:autoFilter ref="A1:G125"/>
   <x:tableColumns count="7">
     <x:tableColumn id="1" name="Item Code"/>
-    <x:tableColumn id="2" name="Item Desc." dataDxfId="0"/>
+    <x:tableColumn id="2" name="Item Desc."/>
     <x:tableColumn id="3" name="Category Code"/>
     <x:tableColumn id="4" name="Category"/>
-    <x:tableColumn id="5" name="Stock"/>
-    <x:tableColumn id="6" name="OnOrder"/>
+    <x:tableColumn id="5" name="Location"/>
+    <x:tableColumn id="6" name="LocationStock"/>
     <x:tableColumn id="7" name="Uom"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -552,7 +1235,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G16"/>
+  <x:dimension ref="A1:G125"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -560,12 +1243,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="28.760625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="63.970625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="27.820625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="88.710625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="20.145425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="27.340625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.315425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="13.905425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="53.140625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.810625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="19.395425" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="9.705425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -596,7 +1279,7 @@
       <x:c r="A2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B2" s="1" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
@@ -619,7 +1302,7 @@
       <x:c r="A3" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B3" s="1" t="s">
+      <x:c r="B3" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
@@ -629,7 +1312,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>12</x:v>
@@ -640,16 +1323,16 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>11</x:v>
@@ -658,21 +1341,21 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>11</x:v>
@@ -681,259 +1364,2766 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B8" s="1" t="s">
+      <x:c r="B8" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B11" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B12" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B13" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B14" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B15" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="B16" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:7">
+      <x:c r="A17" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:7">
+      <x:c r="A18" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:7">
+      <x:c r="A19" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:7">
+      <x:c r="A20" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:7">
+      <x:c r="A21" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:7">
+      <x:c r="A22" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:7">
+      <x:c r="A23" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:7">
+      <x:c r="A24" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:7">
+      <x:c r="A25" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:7">
+      <x:c r="A26" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:7">
+      <x:c r="A27" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:7">
+      <x:c r="A28" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:7">
+      <x:c r="A29" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:7">
+      <x:c r="A30" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:7">
+      <x:c r="A31" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:7">
+      <x:c r="A32" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:7">
+      <x:c r="A33" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:7">
+      <x:c r="A34" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:7">
+      <x:c r="A35" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:7">
+      <x:c r="A36" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:7">
+      <x:c r="A37" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:7">
+      <x:c r="A38" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:7">
+      <x:c r="A39" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:7">
+      <x:c r="A40" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:7">
+      <x:c r="A41" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:7">
+      <x:c r="A42" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:7">
+      <x:c r="A43" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:7">
+      <x:c r="A44" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:7">
+      <x:c r="A45" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:7">
+      <x:c r="A46" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:7">
+      <x:c r="A47" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:7">
+      <x:c r="A48" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:7">
+      <x:c r="A49" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:7">
+      <x:c r="A50" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:7">
+      <x:c r="A51" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:7">
+      <x:c r="A52" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:7">
+      <x:c r="A53" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:7">
+      <x:c r="A54" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:7">
+      <x:c r="A55" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:7">
+      <x:c r="A56" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:7">
+      <x:c r="A57" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:7">
+      <x:c r="A58" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:7">
+      <x:c r="A59" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:7">
+      <x:c r="A60" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:7">
+      <x:c r="A61" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:7">
+      <x:c r="A62" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E62" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F62" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:7">
+      <x:c r="A63" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:7">
+      <x:c r="A64" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F64" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:7">
+      <x:c r="A65" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F65" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="G65" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:7">
+      <x:c r="A66" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E66" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F66" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G66" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:7">
+      <x:c r="A67" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E67" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F67" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="G67" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:7">
+      <x:c r="A68" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E68" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F68" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="G68" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:7">
+      <x:c r="A69" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E69" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F69" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G69" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:7">
+      <x:c r="A70" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F70" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G70" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:7">
+      <x:c r="A71" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E71" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F71" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G71" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:7">
+      <x:c r="A72" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="C72" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D72" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E72" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F72" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G72" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:7">
+      <x:c r="A73" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E73" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F73" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G73" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:7">
+      <x:c r="A74" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E74" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F74" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G74" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:7">
+      <x:c r="A75" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E75" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F75" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="G75" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:7">
+      <x:c r="A76" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E76" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F76" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="G76" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:7">
+      <x:c r="A77" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F77" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G77" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:7">
+      <x:c r="A78" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E78" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F78" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="G78" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:7">
+      <x:c r="A79" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E79" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F79" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G79" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:7">
+      <x:c r="A80" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E80" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F80" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G80" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:7">
+      <x:c r="A81" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C81" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D81" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E81" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F81" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G81" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:7">
+      <x:c r="A82" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="C82" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D82" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E82" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F82" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G82" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:7">
+      <x:c r="A83" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C83" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D83" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E83" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F83" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G83" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:7">
+      <x:c r="A84" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D84" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E84" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F84" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G84" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:7">
+      <x:c r="A85" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E85" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F85" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G85" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:7">
+      <x:c r="A86" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="C86" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D86" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E86" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F86" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G86" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:7">
+      <x:c r="A87" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D87" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E87" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F87" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G87" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:7">
+      <x:c r="A88" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="C88" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D88" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E88" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F88" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G88" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:7">
+      <x:c r="A89" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="C89" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D89" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E89" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F89" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G89" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:7">
+      <x:c r="A90" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D90" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E90" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F90" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G90" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:7">
+      <x:c r="A91" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D91" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E91" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F91" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G91" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:7">
+      <x:c r="A92" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D92" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E92" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F92" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G92" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:7">
+      <x:c r="A93" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C93" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D93" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E93" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F93" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="G93" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:7">
+      <x:c r="A94" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D94" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E94" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F94" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G94" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:7">
+      <x:c r="A95" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="C95" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D95" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E95" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F95" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G95" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:7">
+      <x:c r="A96" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="C96" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D96" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E96" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F96" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="G96" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:7">
+      <x:c r="A97" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E97" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F97" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G97" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:7">
+      <x:c r="A98" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D98" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E98" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F98" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G98" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:7">
+      <x:c r="A99" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D99" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E99" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F99" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G99" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:7">
+      <x:c r="A100" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="C100" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D100" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E100" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F100" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G100" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:7">
+      <x:c r="A101" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="C101" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D101" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E101" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F101" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G101" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:7">
+      <x:c r="A102" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="C102" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D102" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E102" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F102" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G102" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:7">
+      <x:c r="A103" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="C103" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D103" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E103" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F103" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G103" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:7">
+      <x:c r="A104" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="C104" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D104" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E104" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F104" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G104" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:7">
+      <x:c r="A105" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="B105" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="C105" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D105" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E105" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="F105" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G105" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:7">
+      <x:c r="A106" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="B106" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="C106" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D106" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E106" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F106" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="G106" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:7">
+      <x:c r="A107" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="B107" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="C107" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D107" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E107" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F107" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G107" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:7">
+      <x:c r="A108" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="B108" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="C108" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D108" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E108" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F108" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="G108" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:7">
+      <x:c r="A109" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="B109" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="C109" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D109" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E109" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F109" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G109" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:7">
+      <x:c r="A110" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="B110" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="C110" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D110" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E110" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F110" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G110" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:7">
+      <x:c r="A111" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="B111" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="C111" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D111" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E111" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F111" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G111" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:7">
+      <x:c r="A112" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="B112" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="C112" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D112" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E112" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F112" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G112" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:7">
+      <x:c r="A113" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="C113" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D113" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E113" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F113" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="G113" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:7">
+      <x:c r="A114" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="C114" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D114" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E114" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F114" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G114" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:7">
+      <x:c r="A115" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="B115" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="C115" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D115" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E115" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F115" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G115" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:7">
+      <x:c r="A116" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="C116" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D116" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E116" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F116" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="G116" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:7">
+      <x:c r="A117" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="B117" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="C117" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D117" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E117" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F117" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G117" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:7">
+      <x:c r="A118" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="C118" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D118" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E118" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F118" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G118" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:7">
+      <x:c r="A119" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="B119" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="C119" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D119" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E119" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F119" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G119" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:7">
+      <x:c r="A120" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="B120" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="C120" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D120" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E120" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F120" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G120" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:7">
+      <x:c r="A121" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="C121" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D121" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E121" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F121" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G121" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:7">
+      <x:c r="A122" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="B122" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="C122" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D122" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E122" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F122" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G122" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:7">
+      <x:c r="A123" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="B123" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="C123" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D123" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E123" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F123" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G123" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:7">
+      <x:c r="A124" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="C124" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D124" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E124" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F124" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G124" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:7">
+      <x:c r="A125" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B125" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="C125" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="D125" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="E125" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="F125" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="G125" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
